--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251DF176-7A30-46CD-8EEE-78841AC966F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE10164-65AA-42CA-839A-858BE4632DB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="345" windowWidth="21600" windowHeight="13935" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="105">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1205,6 +1205,155 @@
   </si>
   <si>
     <t>代码细节问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据上午所学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QSqlQueryModle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，修改项目中要使用多表查询的功能。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QSqlQueryModle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT Event</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据老师对知识的讲解进行学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自学。结果：学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关知识</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组交流合作编写文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用所学方法进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的初步编写</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2644,6 +2793,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2736,7 +2901,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2748,6 +2913,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2756,7 +2937,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2798,44 +2979,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2848,7 +2997,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -17525,17 +17674,17 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" s="24" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="1:9" s="24" customFormat="1" ht="18.75">
       <c r="A16" s="28"/>
@@ -17857,8 +18006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469F8DE-1282-404F-A51B-CF5242391DAD}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17870,24 +18019,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17904,19 +18053,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -17936,40 +18093,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17988,19 +18151,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18009,107 +18172,131 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="35">
+        <v>6</v>
+      </c>
+      <c r="G11" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="35">
+        <v>2</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18129,57 +18316,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18267,17 +18454,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18326,40 +18513,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18378,19 +18565,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18399,107 +18586,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18519,57 +18706,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18657,17 +18844,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18716,40 +18903,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18768,19 +18955,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18789,107 +18976,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18909,57 +19096,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19047,17 +19234,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19106,40 +19293,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19158,19 +19345,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19179,107 +19366,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19299,57 +19486,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19437,17 +19624,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19496,40 +19683,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19548,19 +19735,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19569,107 +19756,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19689,57 +19876,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19827,17 +20014,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19886,40 +20073,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19938,19 +20125,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19959,107 +20146,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20079,57 +20266,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20217,17 +20404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20276,40 +20463,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20328,19 +20515,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20349,107 +20536,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20469,57 +20656,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20607,17 +20794,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20666,40 +20853,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20718,19 +20905,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20739,107 +20926,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20859,57 +21046,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20997,17 +21184,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21056,40 +21243,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21108,19 +21295,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21129,107 +21316,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21249,57 +21436,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21387,17 +21574,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21446,40 +21633,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21498,19 +21685,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21519,107 +21706,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21639,57 +21826,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22060,16 +22247,16 @@
       <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:9" s="79" customFormat="1" ht="46.5">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
     </row>
     <row r="17" spans="1:8" s="79" customFormat="1">
       <c r="A17" s="80"/>
@@ -22259,15 +22446,15 @@
       <c r="A34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="1:8" s="72" customFormat="1" ht="18.75">
       <c r="A35" s="77"/>
@@ -22344,17 +22531,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22371,7 +22558,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -22383,7 +22570,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -22411,46 +22598,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22469,19 +22656,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22490,20 +22677,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22511,20 +22698,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22532,20 +22719,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22553,20 +22740,20 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="152" t="s">
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22574,20 +22761,20 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="151" t="s">
+      <c r="G14" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="152" t="s">
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22595,42 +22782,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="155">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22650,57 +22837,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22788,17 +22975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22815,7 +23002,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -22827,7 +23014,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -22855,46 +23042,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22913,19 +23100,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22934,20 +23121,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22955,20 +23142,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22976,20 +23163,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22997,68 +23184,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23078,57 +23265,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23196,7 +23383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76444FD-2EF1-4381-B5C2-6EF533B23131}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -23216,17 +23403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23243,7 +23430,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -23255,7 +23442,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -23283,46 +23470,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23341,19 +23528,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23362,20 +23549,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23383,20 +23570,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23404,20 +23591,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23425,68 +23612,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23506,57 +23693,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23625,7 +23812,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23644,17 +23831,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23671,7 +23858,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -23683,7 +23870,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -23711,46 +23898,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23769,19 +23956,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23790,20 +23977,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23811,20 +23998,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23832,20 +24019,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23853,68 +24040,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23934,18 +24121,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -23954,41 +24141,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24076,17 +24263,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24103,7 +24290,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -24115,7 +24302,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -24143,46 +24330,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24201,19 +24388,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24222,20 +24409,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24243,20 +24430,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24264,20 +24451,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24285,68 +24472,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24366,18 +24553,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24386,41 +24573,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24488,8 +24675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34830844-586B-4BDD-8A89-567EB3A6458C}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24508,17 +24695,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24535,7 +24722,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -24547,7 +24734,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -24575,46 +24762,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24633,19 +24820,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24654,20 +24841,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24675,20 +24862,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24696,20 +24883,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24720,17 +24907,17 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="152" t="s">
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24738,55 +24925,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24806,57 +24993,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE10164-65AA-42CA-839A-858BE4632DB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07490D26-B50A-4995-9843-D1E1DD04FF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="345" windowWidth="21600" windowHeight="13935" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="345" windowWidth="21600" windowHeight="13935" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="109">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1354,6 +1354,47 @@
   </si>
   <si>
     <t>设计报告的初步编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和槽，事件过滤器</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善整体框架的搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法：用白天学习的知识，修改项目模块中相关部分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2819,116 +2860,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2978,6 +2909,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18006,8 +18047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469F8DE-1282-404F-A51B-CF5242391DAD}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18026,17 +18067,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18093,46 +18134,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18151,19 +18192,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18172,19 +18213,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18193,19 +18234,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18214,19 +18255,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18236,67 +18277,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18316,57 +18357,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18386,36 +18427,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18434,8 +18475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F527A-E354-4462-9BFF-3499C7CB8091}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18454,17 +18495,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18481,19 +18522,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18513,40 +18562,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="C5" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18565,19 +18620,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18586,39 +18641,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="35">
+        <v>6</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18626,67 +18697,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18706,57 +18777,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18776,36 +18847,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18844,17 +18915,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18904,39 +18975,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18955,19 +19026,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18976,39 +19047,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19016,67 +19087,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19096,57 +19167,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19166,36 +19237,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19234,17 +19305,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19294,39 +19365,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19345,19 +19416,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19366,39 +19437,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19406,67 +19477,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19486,57 +19557,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19556,36 +19627,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19624,17 +19695,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19684,39 +19755,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19735,19 +19806,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19756,39 +19827,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19796,67 +19867,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19876,57 +19947,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19946,36 +20017,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20014,17 +20085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20074,39 +20145,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20125,19 +20196,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20146,39 +20217,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20186,67 +20257,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20266,57 +20337,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20336,36 +20407,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20404,17 +20475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20464,39 +20535,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20515,19 +20586,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20536,39 +20607,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20576,67 +20647,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20656,57 +20727,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20726,36 +20797,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20794,17 +20865,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20854,39 +20925,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20905,19 +20976,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20926,39 +20997,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20966,67 +21037,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21046,57 +21117,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21116,36 +21187,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21184,17 +21255,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21244,39 +21315,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21295,19 +21366,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21316,39 +21387,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21356,67 +21427,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21436,57 +21507,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21506,36 +21577,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21574,17 +21645,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21634,39 +21705,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21685,19 +21756,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21706,39 +21777,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21746,67 +21817,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21826,57 +21897,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21896,36 +21967,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22531,17 +22602,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22598,46 +22669,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22656,19 +22727,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22677,19 +22748,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -22698,19 +22769,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -22719,19 +22790,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -22740,19 +22811,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -22761,19 +22832,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -22782,42 +22853,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22837,57 +22908,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22907,36 +22978,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22975,17 +23046,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23042,46 +23113,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23100,19 +23171,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23121,19 +23192,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23142,19 +23213,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23163,19 +23234,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23185,67 +23256,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23265,57 +23336,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23335,12 +23406,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23349,22 +23430,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23403,17 +23474,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23473,43 +23544,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23528,19 +23599,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23549,19 +23620,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23570,19 +23641,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23591,19 +23662,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23613,67 +23684,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23693,57 +23764,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23763,36 +23834,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23831,17 +23902,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23898,46 +23969,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23956,19 +24027,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23977,19 +24048,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23998,19 +24069,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24019,19 +24090,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24041,67 +24112,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24121,18 +24192,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24141,41 +24212,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24195,36 +24266,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24263,17 +24334,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24330,46 +24401,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24388,19 +24459,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24409,19 +24480,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24430,19 +24501,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24451,19 +24522,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24473,67 +24544,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24553,18 +24624,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24573,41 +24644,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24627,36 +24698,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24695,17 +24766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24762,46 +24833,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24820,19 +24891,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24841,19 +24912,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24862,19 +24933,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24883,19 +24954,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24907,16 +24978,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -24925,55 +24996,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24993,57 +25064,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25063,36 +25134,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07490D26-B50A-4995-9843-D1E1DD04FF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742AD3F-44EA-4942-87D7-4288B75856FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="345" windowWidth="21600" windowHeight="13935" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="885" windowWidth="21600" windowHeight="14385" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="115">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1395,6 +1395,71 @@
   </si>
   <si>
     <t>方法：用白天学习的知识，修改项目模块中相关部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次代码审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QSS</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师给我们指出了不足，指出方向。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目框架和代码的修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据老师对知识的讲解进行学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QTQSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关知识</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2860,6 +2925,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2909,116 +3084,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18067,17 +18132,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18134,46 +18199,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18192,19 +18257,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18213,19 +18278,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18234,19 +18299,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18255,19 +18320,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18277,67 +18342,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18357,57 +18422,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18427,36 +18492,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18475,8 +18540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F527A-E354-4462-9BFF-3499C7CB8091}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18495,17 +18560,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18562,46 +18627,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18620,19 +18685,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18641,19 +18706,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18662,19 +18727,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18683,13 +18748,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18697,67 +18762,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18777,57 +18842,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18847,36 +18912,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18895,8 +18960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880768F8-B191-4A62-86DD-4F1D64E96FC2}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18915,17 +18980,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18942,19 +19007,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18974,40 +19047,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19026,19 +19105,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19047,107 +19126,131 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="35">
+        <v>4</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+        <v>11</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19167,57 +19270,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19237,36 +19340,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19305,17 +19408,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19365,39 +19468,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19416,19 +19519,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19437,39 +19540,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19477,67 +19580,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19557,57 +19660,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19627,36 +19730,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19695,17 +19798,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19755,39 +19858,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19806,19 +19909,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19827,39 +19930,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19867,67 +19970,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19947,57 +20050,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20017,36 +20120,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20085,17 +20188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20145,39 +20248,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20196,19 +20299,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20217,39 +20320,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20257,67 +20360,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20337,57 +20440,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20407,36 +20510,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20475,17 +20578,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20535,39 +20638,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20586,19 +20689,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20607,39 +20710,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20647,67 +20750,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20727,57 +20830,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20797,36 +20900,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20865,17 +20968,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20925,39 +21028,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20976,19 +21079,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20997,39 +21100,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21037,67 +21140,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21117,57 +21220,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21187,36 +21290,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21255,17 +21358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21315,39 +21418,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21366,19 +21469,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21387,39 +21490,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21427,67 +21530,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21507,57 +21610,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21577,36 +21680,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21645,17 +21748,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21705,39 +21808,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21756,19 +21859,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21777,39 +21880,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21817,67 +21920,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21897,57 +22000,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21967,36 +22070,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22602,17 +22705,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22669,46 +22772,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22727,19 +22830,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22748,19 +22851,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -22769,19 +22872,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -22790,19 +22893,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -22811,19 +22914,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -22832,19 +22935,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="G14" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -22853,42 +22956,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22908,57 +23011,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22978,36 +23081,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23046,17 +23149,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23113,46 +23216,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23171,19 +23274,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23192,19 +23295,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23213,19 +23316,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23234,19 +23337,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23256,67 +23359,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23336,57 +23439,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23406,6 +23509,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23414,28 +23539,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23474,17 +23577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23544,43 +23647,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23599,19 +23702,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23620,19 +23723,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23641,19 +23744,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23662,19 +23765,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23684,67 +23787,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23764,57 +23867,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23834,36 +23937,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23902,17 +24005,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23969,46 +24072,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24027,19 +24130,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24048,19 +24151,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24069,19 +24172,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24090,19 +24193,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24112,67 +24215,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24192,18 +24295,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24212,41 +24315,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24266,36 +24369,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24334,17 +24437,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24401,46 +24504,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24459,19 +24562,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24480,19 +24583,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24501,19 +24604,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24522,19 +24625,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24544,67 +24647,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24624,18 +24727,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24644,41 +24747,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24698,36 +24801,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24766,17 +24869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24833,46 +24936,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24891,19 +24994,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24912,19 +25015,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24933,19 +25036,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24954,19 +25057,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24978,16 +25081,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -24996,55 +25099,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25064,57 +25167,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25134,36 +25237,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742AD3F-44EA-4942-87D7-4288B75856FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDFA64-5F1D-4D32-B178-F8266761EBE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="885" windowWidth="21600" windowHeight="14385" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="121">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1460,6 +1460,55 @@
       </rPr>
       <t>相关知识</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多条件查询</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师对知识的讲解进行学习相关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目功能与代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14~2021.01.16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2925,116 +2974,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3084,6 +3023,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18132,17 +18181,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18199,46 +18248,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18257,19 +18306,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18278,19 +18327,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18299,19 +18348,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18320,19 +18369,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18342,67 +18391,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18422,57 +18471,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18492,36 +18541,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18560,17 +18609,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18627,46 +18676,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18685,19 +18734,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18706,19 +18755,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18727,19 +18776,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18748,13 +18797,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18762,67 +18811,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18842,57 +18891,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18912,36 +18961,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18960,8 +19009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880768F8-B191-4A62-86DD-4F1D64E96FC2}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18980,17 +19029,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19047,46 +19096,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19105,19 +19154,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19126,19 +19175,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19147,19 +19196,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19168,19 +19217,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -19190,67 +19239,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19270,57 +19319,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19340,36 +19389,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19388,8 +19437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA8069A-53C6-4F31-94F3-93A29CF46356}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19408,17 +19457,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19435,19 +19484,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19467,40 +19524,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="C5" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19519,19 +19582,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19540,39 +19603,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="35">
+        <v>9</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19580,67 +19659,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19660,57 +19739,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19730,36 +19809,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19798,17 +19877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19858,39 +19937,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19909,19 +19988,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19930,39 +20009,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19970,67 +20049,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20050,57 +20129,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20120,36 +20199,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20188,17 +20267,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20248,39 +20327,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20299,19 +20378,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20320,39 +20399,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20360,67 +20439,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20440,57 +20519,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20510,36 +20589,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20578,17 +20657,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20638,39 +20717,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20689,19 +20768,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20710,39 +20789,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20750,67 +20829,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20830,57 +20909,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20900,36 +20979,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20968,17 +21047,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21028,39 +21107,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21079,19 +21158,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21100,39 +21179,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21140,67 +21219,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21220,57 +21299,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21290,36 +21369,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21358,17 +21437,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21418,39 +21497,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21469,19 +21548,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21490,39 +21569,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21530,67 +21609,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21610,57 +21689,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21680,36 +21759,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21748,17 +21827,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21808,39 +21887,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21859,19 +21938,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21880,39 +21959,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21920,67 +21999,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22000,57 +22079,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22070,36 +22149,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22705,17 +22784,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22772,46 +22851,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22830,19 +22909,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22851,19 +22930,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -22872,19 +22951,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -22893,19 +22972,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -22914,19 +22993,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -22935,19 +23014,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -22956,42 +23035,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23011,57 +23090,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23081,36 +23160,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23149,17 +23228,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23216,46 +23295,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23274,19 +23353,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23295,19 +23374,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23316,19 +23395,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23337,19 +23416,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23359,67 +23438,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23439,57 +23518,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23509,12 +23588,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23523,22 +23612,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23577,17 +23656,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23647,43 +23726,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23702,19 +23781,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23723,19 +23802,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23744,19 +23823,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23765,19 +23844,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23787,67 +23866,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23867,57 +23946,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23937,36 +24016,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24005,17 +24084,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24072,46 +24151,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24130,19 +24209,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24151,19 +24230,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24172,19 +24251,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24193,19 +24272,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24215,67 +24294,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24295,18 +24374,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24315,41 +24394,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24369,36 +24448,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24437,17 +24516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24504,46 +24583,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24562,19 +24641,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24583,19 +24662,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24604,19 +24683,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24625,19 +24704,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24647,67 +24726,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24727,18 +24806,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24747,41 +24826,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24801,36 +24880,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24869,17 +24948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24936,46 +25015,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24994,19 +25073,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -25015,19 +25094,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -25036,19 +25115,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -25057,19 +25136,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -25081,16 +25160,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -25099,55 +25178,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25167,57 +25246,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25237,36 +25316,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDFA64-5F1D-4D32-B178-F8266761EBE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99A025-7C4E-48D0-9580-78878EDEA555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="123">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1511,6 +1511,14 @@
     <t>2021.01.14~2021.01.16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2974,6 +2982,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3023,116 +3141,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18181,17 +18189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18248,46 +18256,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18306,19 +18314,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18327,19 +18335,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18348,19 +18356,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18369,19 +18377,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18391,67 +18399,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18471,57 +18479,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18541,36 +18549,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18609,17 +18617,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18676,46 +18684,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18734,19 +18742,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18755,19 +18763,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18776,19 +18784,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18797,13 +18805,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18811,67 +18819,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18891,57 +18899,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18961,36 +18969,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19029,17 +19037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19096,46 +19104,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19154,19 +19162,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19175,19 +19183,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19196,19 +19204,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19217,19 +19225,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -19239,67 +19247,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19319,57 +19327,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19389,36 +19397,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19437,8 +19445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA8069A-53C6-4F31-94F3-93A29CF46356}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19457,17 +19465,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19524,46 +19532,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19582,19 +19590,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19603,19 +19611,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19624,19 +19632,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19645,13 +19653,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19659,67 +19667,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19739,57 +19747,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19809,36 +19817,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19857,8 +19865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B179F8-9BAB-41EB-9C35-C2AD4D61FFBF}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19877,17 +19885,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19904,19 +19912,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19936,40 +19952,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="156" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19988,19 +20010,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20009,39 +20031,47 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="35">
+        <v>12</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20049,67 +20079,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20129,57 +20159,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20199,36 +20229,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20267,17 +20297,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20327,39 +20357,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20378,19 +20408,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20399,39 +20429,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20439,67 +20469,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20519,57 +20549,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20589,36 +20619,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20657,17 +20687,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20717,39 +20747,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20768,19 +20798,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20789,39 +20819,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20829,67 +20859,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20909,57 +20939,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20979,36 +21009,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21047,17 +21077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21107,39 +21137,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21158,19 +21188,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21179,39 +21209,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21219,67 +21249,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21299,57 +21329,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21369,36 +21399,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21437,17 +21467,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21497,39 +21527,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21548,19 +21578,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21569,39 +21599,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21609,67 +21639,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21689,57 +21719,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21759,36 +21789,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21827,17 +21857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21887,39 +21917,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21938,19 +21968,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21959,39 +21989,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21999,67 +22029,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22079,57 +22109,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22149,36 +22179,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22784,17 +22814,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22851,46 +22881,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22909,19 +22939,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22930,19 +22960,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -22951,19 +22981,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -22972,19 +23002,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -22993,19 +23023,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -23014,19 +23044,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="G14" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -23035,42 +23065,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23090,57 +23120,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23160,36 +23190,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23228,17 +23258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23295,46 +23325,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23353,19 +23383,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23374,19 +23404,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23395,19 +23425,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23416,19 +23446,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23438,67 +23468,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23518,57 +23548,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23588,6 +23618,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23596,28 +23648,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23656,17 +23686,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23726,43 +23756,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23781,19 +23811,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23802,19 +23832,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23823,19 +23853,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23844,19 +23874,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23866,67 +23896,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23946,57 +23976,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24016,36 +24046,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24084,17 +24114,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24151,46 +24181,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24209,19 +24239,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24230,19 +24260,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24251,19 +24281,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24272,19 +24302,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24294,67 +24324,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24374,18 +24404,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24394,41 +24424,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24448,36 +24478,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24516,17 +24546,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24583,46 +24613,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24641,19 +24671,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24662,19 +24692,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24683,19 +24713,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24704,19 +24734,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24726,67 +24756,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24806,18 +24836,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24826,41 +24856,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24880,36 +24910,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24948,17 +24978,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -25015,46 +25045,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -25073,19 +25103,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -25094,19 +25124,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -25115,19 +25145,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -25136,19 +25166,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -25160,16 +25190,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -25178,55 +25208,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25246,57 +25276,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25316,36 +25346,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99A025-7C4E-48D0-9580-78878EDEA555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63BB69-A036-4D2B-97F2-F3456CD8F03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="125">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1519,6 +1519,39 @@
     <t>代码的编写</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qt chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图标知识</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2982,116 +3015,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3141,6 +3064,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18189,17 +18222,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18256,46 +18289,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18314,19 +18347,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18335,19 +18368,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18356,19 +18389,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18377,19 +18410,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18399,67 +18432,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18479,57 +18512,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18549,36 +18582,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18617,17 +18650,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18684,46 +18717,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18742,19 +18775,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18763,19 +18796,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18784,19 +18817,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18805,13 +18838,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18819,67 +18852,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18899,57 +18932,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18969,36 +19002,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19037,17 +19070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19104,46 +19137,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19162,19 +19195,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19183,19 +19216,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19204,19 +19237,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19225,19 +19258,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -19247,67 +19280,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19327,57 +19360,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19397,36 +19430,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19443,6 +19476,426 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA8069A-53C6-4F31-94F3-93A29CF46356}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
+    </row>
+    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="35">
+        <v>9</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38">
+        <v>3</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="37">
+        <v>4</v>
+      </c>
+      <c r="C13" s="155"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="37">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="38">
+        <v>6</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="37">
+        <v>7</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="40">
+        <v>2</v>
+      </c>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="41">
+        <v>3</v>
+      </c>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{B26D4B0E-B2E5-48AA-A26D-26A2546E103D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{F82BC2AE-2522-4901-904A-0FD8234A15D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{7847EE3C-7847-4D8F-B13D-01BEF94A81AC}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B179F8-9BAB-41EB-9C35-C2AD4D61FFBF}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -19465,17 +19918,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19499,7 +19952,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -19532,46 +19985,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19590,19 +20043,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19611,19 +20064,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
-        <v>9</v>
-      </c>
-      <c r="G10" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19632,34 +20085,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="104" t="s">
-        <v>53</v>
-      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19667,67 +20112,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19747,57 +20192,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19817,42 +20262,42 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{B26D4B0E-B2E5-48AA-A26D-26A2546E103D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{F82BC2AE-2522-4901-904A-0FD8234A15D6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{7847EE3C-7847-4D8F-B13D-01BEF94A81AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{AC363808-863C-4840-B106-65767F1A3762}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{45499729-1C5E-4B10-9D2A-E310A62C56A3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{B569BB0E-66E8-4C94-9942-3C7BB2E78045}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -19861,12 +20306,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B179F8-9BAB-41EB-9C35-C2AD4D61FFBF}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BEE34-1D58-4192-8CFE-2E442CF9B47D}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19885,17 +20330,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19919,7 +20364,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -19952,46 +20397,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20010,19 +20455,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20031,19 +20476,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
-        <v>12</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20052,26 +20497,34 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="35">
+        <v>8</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20079,67 +20532,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20159,57 +20612,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20229,426 +20682,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{AC363808-863C-4840-B106-65767F1A3762}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{45499729-1C5E-4B10-9D2A-E310A62C56A3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{B569BB0E-66E8-4C94-9942-3C7BB2E78045}"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BEE34-1D58-4192-8CFE-2E442CF9B47D}">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="152" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="130" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20687,17 +20750,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20747,39 +20810,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20798,19 +20861,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20819,39 +20882,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20859,67 +20922,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20939,57 +21002,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21009,36 +21072,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21077,17 +21140,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21137,39 +21200,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21188,19 +21251,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21209,39 +21272,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21249,67 +21312,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21329,57 +21392,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21399,36 +21462,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21467,17 +21530,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21527,39 +21590,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21578,19 +21641,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21599,39 +21662,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21639,67 +21702,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21719,57 +21782,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21789,36 +21852,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21857,17 +21920,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21917,39 +21980,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21968,19 +22031,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21989,39 +22052,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -22029,67 +22092,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22109,57 +22172,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22179,36 +22242,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22814,17 +22877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22881,46 +22944,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22939,19 +23002,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22960,19 +23023,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -22981,19 +23044,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23002,19 +23065,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23023,19 +23086,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -23044,19 +23107,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -23065,42 +23128,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23120,57 +23183,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23190,36 +23253,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23258,17 +23321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23325,46 +23388,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23383,19 +23446,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23404,19 +23467,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23425,19 +23488,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23446,19 +23509,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23468,67 +23531,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23548,57 +23611,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23618,12 +23681,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23632,22 +23705,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23686,17 +23749,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23756,43 +23819,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23811,19 +23874,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23832,19 +23895,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23853,19 +23916,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23874,19 +23937,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23896,67 +23959,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23976,57 +24039,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24046,36 +24109,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24114,17 +24177,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24181,46 +24244,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24239,19 +24302,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24260,19 +24323,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24281,19 +24344,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24302,19 +24365,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24324,67 +24387,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24404,18 +24467,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24424,41 +24487,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24478,36 +24541,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24546,17 +24609,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24613,46 +24676,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24671,19 +24734,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24692,19 +24755,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24713,19 +24776,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24734,19 +24797,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24756,67 +24819,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24836,18 +24899,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24856,41 +24919,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24910,36 +24973,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24978,17 +25041,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -25045,46 +25108,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -25103,19 +25166,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -25124,19 +25187,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -25145,19 +25208,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -25166,19 +25229,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -25190,16 +25253,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -25208,55 +25271,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25276,57 +25339,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25346,36 +25409,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63BB69-A036-4D2B-97F2-F3456CD8F03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EE2EF-58E3-4B7A-8D59-E1D2DA65A46A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="130">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1552,6 +1552,26 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码修改与完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理细节，完善代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告，答辩报告的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际情况编写报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3015,6 +3035,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3064,116 +3194,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18222,17 +18242,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18289,46 +18309,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18347,19 +18367,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18368,19 +18388,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18389,19 +18409,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18410,19 +18430,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18432,67 +18452,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18512,57 +18532,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18582,36 +18602,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18650,17 +18670,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18717,46 +18737,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18775,19 +18795,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18796,19 +18816,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18817,19 +18837,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18838,13 +18858,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18852,67 +18872,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18932,57 +18952,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19002,36 +19022,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19070,17 +19090,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19137,46 +19157,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19195,19 +19215,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19216,19 +19236,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19237,19 +19257,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19258,19 +19278,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -19280,67 +19300,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19360,57 +19380,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19430,36 +19450,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19498,17 +19518,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19565,46 +19585,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19623,19 +19643,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19644,19 +19664,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19665,19 +19685,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19686,13 +19706,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19700,67 +19720,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19780,57 +19800,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19850,36 +19870,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19918,17 +19938,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19988,43 +20008,43 @@
       <c r="C5" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20043,19 +20063,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20064,19 +20084,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20085,26 +20105,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20112,67 +20132,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20192,57 +20212,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20262,36 +20282,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20310,7 +20330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BEE34-1D58-4192-8CFE-2E442CF9B47D}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
@@ -20330,17 +20350,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20397,46 +20417,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20455,19 +20475,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20476,19 +20496,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20497,19 +20517,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -20518,13 +20538,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20532,67 +20552,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20612,57 +20632,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20682,36 +20702,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20730,8 +20750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB183E49-FD17-4ED3-9BDA-39A3D6CD0C15}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20750,17 +20770,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20777,19 +20797,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20809,40 +20837,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20861,19 +20895,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20882,39 +20916,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="35">
+        <v>6</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20922,67 +20972,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21002,57 +21052,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21072,36 +21122,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21140,17 +21190,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21200,39 +21250,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21251,19 +21301,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21272,39 +21322,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21312,67 +21362,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21392,57 +21442,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21462,36 +21512,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21530,17 +21580,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21590,39 +21640,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21641,19 +21691,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21662,39 +21712,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21702,67 +21752,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21782,57 +21832,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21852,36 +21902,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21920,17 +21970,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21980,39 +22030,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22031,19 +22081,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22052,39 +22102,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -22092,67 +22142,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22172,57 +22222,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22242,36 +22292,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22877,17 +22927,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22944,46 +22994,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23002,19 +23052,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23023,19 +23073,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23044,19 +23094,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23065,19 +23115,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23086,19 +23136,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -23107,19 +23157,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="G14" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -23128,42 +23178,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23183,57 +23233,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23253,36 +23303,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23321,17 +23371,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23388,46 +23438,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23446,19 +23496,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23467,19 +23517,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23488,19 +23538,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23509,19 +23559,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23531,67 +23581,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23611,57 +23661,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23681,6 +23731,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23689,28 +23761,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23749,17 +23799,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23819,43 +23869,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23874,19 +23924,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23895,19 +23945,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23916,19 +23966,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23937,19 +23987,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23959,67 +24009,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24039,57 +24089,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24109,36 +24159,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24177,17 +24227,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24244,46 +24294,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24302,19 +24352,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24323,19 +24373,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24344,19 +24394,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24365,19 +24415,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24387,67 +24437,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24467,18 +24517,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24487,41 +24537,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24541,36 +24591,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24609,17 +24659,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24676,46 +24726,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24734,19 +24784,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24755,19 +24805,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24776,19 +24826,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24797,19 +24847,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24819,67 +24869,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24899,18 +24949,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24919,41 +24969,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24973,36 +25023,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -25041,17 +25091,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -25108,46 +25158,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -25166,19 +25216,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -25187,19 +25237,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -25208,19 +25258,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -25229,19 +25279,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -25253,16 +25303,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -25271,55 +25321,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25339,57 +25389,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25409,36 +25459,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_黄世隽.xlsx
+++ b/学生提交材料/个人日报/个人日报_黄世隽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stream\Desktop\学生提交材料\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EE2EF-58E3-4B7A-8D59-E1D2DA65A46A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F4CD7-FED4-4D95-A27E-476265DBA5FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="405" windowWidth="21600" windowHeight="14385" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="132">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1572,6 +1572,14 @@
     <t>根据实际情况编写报告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目实际编写报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3035,116 +3043,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3194,6 +3092,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18242,17 +18250,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18309,46 +18317,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18367,19 +18375,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18388,19 +18396,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18409,19 +18417,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18430,19 +18438,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -18452,67 +18460,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18532,57 +18540,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -18602,36 +18610,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18670,17 +18678,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18737,46 +18745,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18795,19 +18803,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18816,19 +18824,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -18837,19 +18845,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -18858,13 +18866,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18872,67 +18880,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18952,57 +18960,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19022,36 +19030,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19090,17 +19098,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19157,46 +19165,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19215,19 +19223,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19236,19 +19244,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19257,19 +19265,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19278,19 +19286,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -19300,67 +19308,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19380,57 +19388,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19450,36 +19458,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19518,17 +19526,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19585,46 +19593,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19643,19 +19651,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19664,19 +19672,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -19685,19 +19693,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -19706,13 +19714,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19720,67 +19728,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19800,57 +19808,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -19870,36 +19878,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19938,17 +19946,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20008,43 +20016,43 @@
       <c r="C5" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20063,19 +20071,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20084,19 +20092,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20105,26 +20113,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20132,67 +20140,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20212,57 +20220,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20282,36 +20290,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20350,17 +20358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20417,46 +20425,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20475,19 +20483,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20496,19 +20504,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20517,19 +20525,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -20538,13 +20546,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20552,67 +20560,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20632,57 +20640,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -20702,36 +20710,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20750,8 +20758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB183E49-FD17-4ED3-9BDA-39A3D6CD0C15}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20770,17 +20778,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20837,46 +20845,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20895,19 +20903,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20916,19 +20924,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -20937,19 +20945,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -20958,13 +20966,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20972,67 +20980,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21052,57 +21060,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21122,36 +21130,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21170,8 +21178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24070CB-2DC6-4C56-93AF-28AE93842DD6}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21190,17 +21198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21217,19 +21225,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="102" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21249,40 +21265,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="C5" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21301,19 +21323,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21322,39 +21344,47 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="35">
+        <v>12</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="104" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21362,67 +21392,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21442,57 +21472,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21512,36 +21542,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21580,17 +21610,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21640,39 +21670,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21691,19 +21721,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21712,39 +21742,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21752,67 +21782,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21832,57 +21862,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -21902,36 +21932,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21970,17 +22000,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22030,39 +22060,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="160"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22081,19 +22111,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22102,39 +22132,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -22142,67 +22172,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22222,57 +22252,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -22292,36 +22322,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22927,17 +22957,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22994,46 +23024,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23052,19 +23082,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23073,19 +23103,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23094,19 +23124,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23115,19 +23145,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23136,19 +23166,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -23157,19 +23187,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="101">
         <v>0.5</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="104" t="s">
         <v>53</v>
       </c>
@@ -23178,42 +23208,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23233,57 +23263,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23303,36 +23333,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23371,17 +23401,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23438,46 +23468,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23496,19 +23526,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23517,19 +23547,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23538,19 +23568,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23559,19 +23589,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -23581,67 +23611,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23661,57 +23691,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -23731,12 +23761,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23745,22 +23785,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23799,17 +23829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23869,43 +23899,43 @@
       <c r="C5" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23924,19 +23954,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23945,19 +23975,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -23966,19 +23996,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -23987,19 +24017,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24009,67 +24039,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24089,57 +24119,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24159,36 +24189,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24227,17 +24257,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24294,46 +24324,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24352,19 +24382,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24373,19 +24403,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24394,19 +24424,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24415,19 +24445,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24437,67 +24467,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24517,18 +24547,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24537,41 +24567,41 @@
       <c r="C20" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -24591,36 +24621,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24659,17 +24689,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24726,46 +24756,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24784,19 +24814,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24805,19 +24835,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -24826,19 +24856,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -24847,19 +24877,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -24869,67 +24899,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24949,18 +24979,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24969,41 +24999,41 @@
       <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25023,36 +25053,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -25091,17 +25121,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -25158,46 +25188,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -25216,19 +25246,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -25237,19 +25267,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="104" t="s">
         <v>53</v>
       </c>
@@ -25258,19 +25288,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="104" t="s">
         <v>53</v>
       </c>
@@ -25279,19 +25309,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="104" t="s">
         <v>53</v>
       </c>
@@ -25303,16 +25333,16 @@
       <c r="C13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
@@ -25321,55 +25351,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25389,57 +25419,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="43" t="s">
@@ -25459,36 +25489,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
